--- a/biology/Médecine/Jean_Lenègre/Jean_Lenègre.xlsx
+++ b/biology/Médecine/Jean_Lenègre/Jean_Lenègre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Len%C3%A8gre</t>
+          <t>Jean_Lenègre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Lenègre-Thourin, né le 25 mars 1904 dans le 10e arrondissement de Paris[1], ville où il est mort le 9 février 1972 au sein de l'Hôpital Boucicaut dans le 15e arrondissement[2], est un médecin et cardiologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Lenègre-Thourin, né le 25 mars 1904 dans le 10e arrondissement de Paris, ville où il est mort le 9 février 1972 au sein de l'Hôpital Boucicaut dans le 15e arrondissement, est un médecin et cardiologue français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Len%C3%A8gre</t>
+          <t>Jean_Lenègre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d'un médecin généraliste d'origine auvergnate. Après des études au Lycée Louis-le-grand, il commence de brillantes études de médecine. Externe à l'âge de 19 ans, il est nommé interne à 23 ans, médecin des hôpitaux à 33 ans et agrégé de médecine générale dès 35 ans. Il obtient la chaire de médecine expérimentale à la Faculté de médecine de Paris, avant de devenir professeur de clinique médicale. Il était commandeur de la Légion d'Honneur et commandeur dans l'Ordre National du Mérite.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_Len%C3%A8gre</t>
+          <t>Jean_Lenègre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il est l'auteur de plus de six cents publications concernant la cardiologie.
 L'hypertension permanente de l'adulte et son retentissement artériel, [Thèse de Médecine], Paris, G. Doin, 1933.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean_Len%C3%A8gre</t>
+          <t>Jean_Lenègre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +595,12 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Syndrome de Lenègre-Lev[3]
-Maladie de Lenègre[4]: fibrose des deux branches du faisceau de His à l'origine de troubles progressifs de la conduction.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Syndrome de Lenègre-Lev
+Maladie de Lenègre: fibrose des deux branches du faisceau de His à l'origine de troubles progressifs de la conduction.</t>
         </is>
       </c>
     </row>
